--- a/tracking submissions.xlsx
+++ b/tracking submissions.xlsx
@@ -14,12 +14,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>submissions</t>
   </si>
   <si>
     <t>Kaggle score</t>
+  </si>
+  <si>
+    <t>1.Did cross validation and selected k=  3 and get
+variance = 0.000353 and f1-score = 0.717
+2. Added  feature cabin back to model
+3. Grid searchCV</t>
+  </si>
+  <si>
+    <t>0.78468
+Rank - 3029</t>
+  </si>
+  <si>
+    <t>0.72727
+Rank - 16k</t>
   </si>
 </sst>
 </file>
@@ -78,10 +92,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -97,6 +117,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>662940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="579119"/>
+          <a:ext cx="6469380" cy="632461"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,19 +449,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -406,48 +470,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.72726999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/tracking submissions.xlsx
+++ b/tracking submissions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>submissions</t>
   </si>
@@ -22,18 +22,61 @@
     <t>Kaggle score</t>
   </si>
   <si>
-    <t>1.Did cross validation and selected k=  3 and get
+    <t>0.78468
+Rank - 3029</t>
+  </si>
+  <si>
+    <t>0.72727
+Rank - 16k</t>
+  </si>
+  <si>
+    <t>1. Added 2 features but it did not help in improving 
+score</t>
+  </si>
+  <si>
+    <t>grid_score = 0.71706</t>
+  </si>
+  <si>
+    <t>grid_score=  0.72058</t>
+  </si>
+  <si>
+    <t>1. Adding only age_bins</t>
+  </si>
+  <si>
+    <t>grid_score = 0.7348</t>
+  </si>
+  <si>
+    <t>0.77751
+Rank - 3039</t>
+  </si>
+  <si>
+    <t>grid_score = 0.7227</t>
+  </si>
+  <si>
+    <t>1. Adding fare_bins and bringing back age column
+avg_f1_score = 0.72002</t>
+  </si>
+  <si>
+    <t>1. Removed age_bins and fare_bins, and used age 
+and fare
+2. used = k=3
+avg f1-score = 0.7189 and var = 0.00035</t>
+  </si>
+  <si>
+    <t>grid_score = 0.74848</t>
+  </si>
+  <si>
+    <t>0.77990
+rank &lt; 3029</t>
+  </si>
+  <si>
+    <t>1.Did cross validation and selected k=  5 and get
 variance = 0.000353 and f1-score = 0.717
 2. Added  feature cabin back to model
 3. Grid searchCV</t>
   </si>
   <si>
-    <t>0.78468
-Rank - 3029</t>
-  </si>
-  <si>
-    <t>0.72727
-Rank - 16k</t>
+    <t>Reverted the changes to submission 2</t>
   </si>
 </sst>
 </file>
@@ -123,16 +166,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>30479</xdr:rowOff>
+      <xdr:rowOff>7619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>662940</xdr:rowOff>
+      <xdr:rowOff>640080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -149,7 +192,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4533900" y="579119"/>
+          <a:off x="5806440" y="556259"/>
           <a:ext cx="6469380" cy="632461"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -449,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,9 +503,10 @@
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,50 +514,90 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>0.77271999999999996</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
